--- a/nce/nce-learning-schedule.xlsx
+++ b/nce/nce-learning-schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Wy_Work\AngYony\ay-english-notes\nce\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16C295ED-6DB9-4E32-BF0D-E630F6138582}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A39E4D6-B15D-4AEB-B33A-1017652912D5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2130" yWindow="-120" windowWidth="26790" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1018,7 +1018,7 @@
   <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.75" defaultRowHeight="20.25" x14ac:dyDescent="0.3"/>
@@ -1074,13 +1074,13 @@
       <c r="C3" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F3" s="14" t="s">
         <v>11</v>
       </c>
       <c r="G3" s="19" t="s">
@@ -1092,13 +1092,13 @@
       <c r="A4" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="14" t="s">
         <v>14</v>
       </c>
       <c r="E4" s="3" t="s">

--- a/nce/nce-learning-schedule.xlsx
+++ b/nce/nce-learning-schedule.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Wy_Work\AngYony\ay-english-notes\nce\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A39E4D6-B15D-4AEB-B33A-1017652912D5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EE9AF78-0A50-4BF6-A555-12955FB13A7D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2130" yWindow="-120" windowWidth="26790" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="34335" yWindow="3900" windowWidth="20370" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1018,7 +1018,7 @@
   <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.75" defaultRowHeight="20.25" x14ac:dyDescent="0.3"/>
@@ -1101,10 +1101,10 @@
       <c r="D4" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E4" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="F4" s="14" t="s">
         <v>16</v>
       </c>
       <c r="G4" s="3"/>
@@ -1114,10 +1114,10 @@
       <c r="A5" s="9" t="s">
         <v>81</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="14" t="s">
         <v>18</v>
       </c>
       <c r="D5" s="3" t="s">

--- a/nce/nce-learning-schedule.xlsx
+++ b/nce/nce-learning-schedule.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Wy_Work\AngYony\ay-english-notes\nce\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EE9AF78-0A50-4BF6-A555-12955FB13A7D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56F4BD26-1839-4A7C-9074-2EE9759838EF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="34335" yWindow="3900" windowWidth="20370" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2325" yWindow="-120" windowWidth="26595" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1018,7 +1018,7 @@
   <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.75" defaultRowHeight="20.25" x14ac:dyDescent="0.3"/>
@@ -1120,7 +1120,7 @@
       <c r="C5" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="14" t="s">
         <v>19</v>
       </c>
       <c r="E5" s="3" t="s">

--- a/nce/nce-learning-schedule.xlsx
+++ b/nce/nce-learning-schedule.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22325"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Wy_Work\AngYony\ay-english-notes\nce\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56F4BD26-1839-4A7C-9074-2EE9759838EF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02F4B8E5-787D-4229-925E-6FD70385A466}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2325" yWindow="-120" windowWidth="26595" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1018,7 +1018,7 @@
   <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.75" defaultRowHeight="20.25" x14ac:dyDescent="0.3"/>
@@ -1123,10 +1123,10 @@
       <c r="D5" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="E5" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="F5" s="14" t="s">
         <v>21</v>
       </c>
       <c r="G5" s="3"/>
@@ -1136,7 +1136,7 @@
       <c r="A6" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="14" t="s">
         <v>22</v>
       </c>
       <c r="C6" s="3" t="s">

--- a/nce/nce-learning-schedule.xlsx
+++ b/nce/nce-learning-schedule.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Wy_Work\AngYony\ay-english-notes\nce\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02F4B8E5-787D-4229-925E-6FD70385A466}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A7A73E7-C8B3-4CD1-AB79-CC1EB166C031}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2325" yWindow="-120" windowWidth="26595" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="32610" yWindow="5070" windowWidth="20370" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1018,7 +1018,7 @@
   <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.75" defaultRowHeight="20.25" x14ac:dyDescent="0.3"/>
@@ -1139,7 +1139,7 @@
       <c r="B6" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="14" t="s">
         <v>23</v>
       </c>
       <c r="D6" s="3" t="s">

--- a/nce/nce-learning-schedule.xlsx
+++ b/nce/nce-learning-schedule.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Wy_Work\AngYony\ay-english-notes\nce\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A7A73E7-C8B3-4CD1-AB79-CC1EB166C031}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21FB15BD-67EB-4DB2-872F-8EB7EA8C170F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="32610" yWindow="5070" windowWidth="20370" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="30315" yWindow="-120" windowWidth="27405" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1018,7 +1018,7 @@
   <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.75" defaultRowHeight="20.25" x14ac:dyDescent="0.3"/>
@@ -1142,10 +1142,10 @@
       <c r="C6" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="D6" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="E6" s="14" t="s">
         <v>25</v>
       </c>
       <c r="F6" s="3" t="s">

--- a/nce/nce-learning-schedule.xlsx
+++ b/nce/nce-learning-schedule.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22325"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Wy_Work\AngYony\ay-english-notes\nce\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21FB15BD-67EB-4DB2-872F-8EB7EA8C170F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89AB5E9E-EEB6-4FB0-93AF-AAA7615992F6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30315" yWindow="-120" windowWidth="27405" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17790" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1018,7 +1018,7 @@
   <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.75" defaultRowHeight="20.25" x14ac:dyDescent="0.3"/>
@@ -1148,7 +1148,7 @@
       <c r="E6" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="F6" s="3" t="s">
+      <c r="F6" s="14" t="s">
         <v>26</v>
       </c>
       <c r="G6" s="3"/>

--- a/nce/nce-learning-schedule.xlsx
+++ b/nce/nce-learning-schedule.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Wy_Work\AngYony\ay-english-notes\nce\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89AB5E9E-EEB6-4FB0-93AF-AAA7615992F6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B26C1E1D-CC6D-49FE-93E1-1E8ABEE1F75A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17790" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="33315" yWindow="3390" windowWidth="19770" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1018,7 +1018,7 @@
   <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.75" defaultRowHeight="20.25" x14ac:dyDescent="0.3"/>
@@ -1158,7 +1158,7 @@
       <c r="A7" s="9" t="s">
         <v>83</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="14" t="s">
         <v>27</v>
       </c>
       <c r="C7" s="3" t="s">

--- a/nce/nce-learning-schedule.xlsx
+++ b/nce/nce-learning-schedule.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Wy_Work\AngYony\ay-english-notes\nce\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B26C1E1D-CC6D-49FE-93E1-1E8ABEE1F75A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1BF49DD-4591-4C80-AD4E-C3D371EC600D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="33315" yWindow="3390" windowWidth="19770" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17790" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1018,7 +1018,7 @@
   <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.75" defaultRowHeight="20.25" x14ac:dyDescent="0.3"/>
@@ -1161,10 +1161,10 @@
       <c r="B7" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="D7" s="14" t="s">
         <v>29</v>
       </c>
       <c r="E7" s="3" t="s">

--- a/nce/nce-learning-schedule.xlsx
+++ b/nce/nce-learning-schedule.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Wy_Work\AngYony\ay-english-notes\nce\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1BF49DD-4591-4C80-AD4E-C3D371EC600D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3C27647-0F79-4BAC-B585-477CF8DA9BC5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17790" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2325" yWindow="-120" windowWidth="26595" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1018,7 +1018,7 @@
   <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.75" defaultRowHeight="20.25" x14ac:dyDescent="0.3"/>
@@ -1167,7 +1167,7 @@
       <c r="D7" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="E7" s="3" t="s">
+      <c r="E7" s="14" t="s">
         <v>30</v>
       </c>
       <c r="F7" s="3" t="s">

--- a/nce/nce-learning-schedule.xlsx
+++ b/nce/nce-learning-schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Wy_Work\AngYony\ay-english-notes\nce\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3C27647-0F79-4BAC-B585-477CF8DA9BC5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B58A73EB-D2E4-4F14-857C-93FCBD061829}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2325" yWindow="-120" windowWidth="26595" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1018,7 +1018,7 @@
   <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.75" defaultRowHeight="20.25" x14ac:dyDescent="0.3"/>
@@ -1170,7 +1170,7 @@
       <c r="E7" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="F7" s="3" t="s">
+      <c r="F7" s="14" t="s">
         <v>31</v>
       </c>
       <c r="G7" s="3"/>

--- a/nce/nce-learning-schedule.xlsx
+++ b/nce/nce-learning-schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Wy_Work\AngYony\ay-english-notes\nce\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B58A73EB-D2E4-4F14-857C-93FCBD061829}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{296808E0-8C26-4A66-9393-0834936B9499}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2325" yWindow="-120" windowWidth="26595" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1018,7 +1018,7 @@
   <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.75" defaultRowHeight="20.25" x14ac:dyDescent="0.3"/>
@@ -1180,7 +1180,7 @@
       <c r="A8" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="14" t="s">
         <v>32</v>
       </c>
       <c r="C8" s="3" t="s">

--- a/nce/nce-learning-schedule.xlsx
+++ b/nce/nce-learning-schedule.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Wy_Work\AngYony\ay-english-notes\nce\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{296808E0-8C26-4A66-9393-0834936B9499}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{702C3778-0094-40AD-BD48-108BC97ABD83}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2325" yWindow="-120" windowWidth="26595" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="37770" yWindow="5685" windowWidth="19770" windowHeight="11805" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1018,7 +1018,7 @@
   <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.75" defaultRowHeight="20.25" x14ac:dyDescent="0.3"/>
@@ -1183,7 +1183,7 @@
       <c r="B8" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" s="14" t="s">
         <v>33</v>
       </c>
       <c r="D8" s="3" t="s">

--- a/nce/nce-learning-schedule.xlsx
+++ b/nce/nce-learning-schedule.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Wy_Work\AngYony\ay-english-notes\nce\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{702C3778-0094-40AD-BD48-108BC97ABD83}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCE44D2A-50F6-4658-8B4F-3088B29D514D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="37770" yWindow="5685" windowWidth="19770" windowHeight="11805" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2325" yWindow="-120" windowWidth="26595" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1018,7 +1018,7 @@
   <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.75" defaultRowHeight="20.25" x14ac:dyDescent="0.3"/>
@@ -1186,7 +1186,7 @@
       <c r="C8" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="D8" s="14" t="s">
         <v>34</v>
       </c>
       <c r="E8" s="3" t="s">

--- a/nce/nce-learning-schedule.xlsx
+++ b/nce/nce-learning-schedule.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Wy_Work\AngYony\ay-english-notes\nce\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCE44D2A-50F6-4658-8B4F-3088B29D514D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AF65C21-E1C5-4F5C-8BCB-12BF80030853}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2325" yWindow="-120" windowWidth="26595" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17790" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1018,7 +1018,7 @@
   <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.75" defaultRowHeight="20.25" x14ac:dyDescent="0.3"/>
@@ -1189,7 +1189,7 @@
       <c r="D8" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="E8" s="3" t="s">
+      <c r="E8" s="14" t="s">
         <v>35</v>
       </c>
       <c r="F8" s="3" t="s">

--- a/nce/nce-learning-schedule.xlsx
+++ b/nce/nce-learning-schedule.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Wy_Work\AngYony\ay-english-notes\nce\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AF65C21-E1C5-4F5C-8BCB-12BF80030853}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D17274D8-3E5E-42DE-9C1C-60B256F848C8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17790" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1018,7 +1018,7 @@
   <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.75" defaultRowHeight="20.25" x14ac:dyDescent="0.3"/>
@@ -1192,7 +1192,7 @@
       <c r="E8" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="F8" s="3" t="s">
+      <c r="F8" s="14" t="s">
         <v>36</v>
       </c>
       <c r="G8" s="3"/>

--- a/nce/nce-learning-schedule.xlsx
+++ b/nce/nce-learning-schedule.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Wy_Work\AngYony\ay-english-notes\nce\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D17274D8-3E5E-42DE-9C1C-60B256F848C8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{219DEE2C-239F-4E87-A4AA-06CEC4756DD0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="29565" yWindow="780" windowWidth="21600" windowHeight="11505" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1018,7 +1018,7 @@
   <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.75" defaultRowHeight="20.25" x14ac:dyDescent="0.3"/>
@@ -1202,7 +1202,7 @@
       <c r="A9" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="14" t="s">
         <v>37</v>
       </c>
       <c r="C9" s="3" t="s">

--- a/nce/nce-learning-schedule.xlsx
+++ b/nce/nce-learning-schedule.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Wy_Work\AngYony\ay-english-notes\nce\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{219DEE2C-239F-4E87-A4AA-06CEC4756DD0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB16C9F9-7592-4CEF-ABBC-4DF5220349BA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29565" yWindow="780" windowWidth="21600" windowHeight="11505" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2325" yWindow="-120" windowWidth="26595" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -478,7 +478,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -503,6 +503,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="12">
     <border>
@@ -677,7 +683,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -733,6 +739,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1018,7 +1027,7 @@
   <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.75" defaultRowHeight="20.25" x14ac:dyDescent="0.3"/>
@@ -1205,7 +1214,7 @@
       <c r="B9" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C9" s="21" t="s">
         <v>38</v>
       </c>
       <c r="D9" s="3" t="s">

--- a/nce/nce-learning-schedule.xlsx
+++ b/nce/nce-learning-schedule.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Wy_Work\AngYony\ay-english-notes\nce\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB16C9F9-7592-4CEF-ABBC-4DF5220349BA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C7500A5-B94B-49B3-BC9D-5A262F0B97B7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2325" yWindow="-120" windowWidth="26595" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4035" yWindow="2475" windowWidth="21600" windowHeight="11505" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -478,7 +478,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -503,12 +503,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="12">
     <border>
@@ -683,7 +677,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -739,9 +733,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1027,7 +1018,7 @@
   <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.75" defaultRowHeight="20.25" x14ac:dyDescent="0.3"/>
@@ -1214,7 +1205,7 @@
       <c r="B9" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="C9" s="21" t="s">
+      <c r="C9" s="14" t="s">
         <v>38</v>
       </c>
       <c r="D9" s="3" t="s">

--- a/nce/nce-learning-schedule.xlsx
+++ b/nce/nce-learning-schedule.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Wy_Work\AngYony\ay-english-notes\nce\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C7500A5-B94B-49B3-BC9D-5A262F0B97B7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AE9B188-3BF3-49CC-8671-7515F658D6D5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4035" yWindow="2475" windowWidth="21600" windowHeight="11505" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2325" yWindow="-120" windowWidth="26595" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1018,7 +1018,7 @@
   <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.75" defaultRowHeight="20.25" x14ac:dyDescent="0.3"/>
@@ -1208,7 +1208,7 @@
       <c r="C9" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="D9" s="14" t="s">
         <v>39</v>
       </c>
       <c r="E9" s="3" t="s">

--- a/nce/nce-learning-schedule.xlsx
+++ b/nce/nce-learning-schedule.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Wy_Work\AngYony\ay-english-notes\nce\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AE9B188-3BF3-49CC-8671-7515F658D6D5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0DDE643-6095-4D94-AF2E-793BCBDC7D03}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2325" yWindow="-120" windowWidth="26595" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -390,15 +390,15 @@
     <t>第15周</t>
   </si>
   <si>
-    <t>新概念第一册学习计划：2019/12/23~2020/4/20</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>每次学习新的技术栈，全是英文，你还觉得英文不重要么？为什么不学习？为什么不坚持学习下去？</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>mooc java 架构师</t>
+    <t>新概念第一册学习计划：2020/07/01~2020/8/31</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Docker/Go/Kubernetes</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1018,7 +1018,7 @@
   <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.75" defaultRowHeight="20.25" x14ac:dyDescent="0.3"/>
@@ -1030,7 +1030,7 @@
   <sheetData>
     <row r="1" spans="1:8" ht="25.5" x14ac:dyDescent="0.35">
       <c r="A1" s="15" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B1" s="16"/>
       <c r="C1" s="16"/>
@@ -1392,7 +1392,7 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" s="18" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B19" s="18"/>
       <c r="C19" s="18"/>
@@ -1430,5 +1430,6 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/nce/nce-learning-schedule.xlsx
+++ b/nce/nce-learning-schedule.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Wy_Work\AngYony\ay-english-notes\nce\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0DDE643-6095-4D94-AF2E-793BCBDC7D03}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4456352B-B1DE-4CB8-A622-55886E9AB72A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2325" yWindow="-120" windowWidth="26595" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="96">
   <si>
     <t>周一</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -395,10 +395,6 @@
   </si>
   <si>
     <t>新概念第一册学习计划：2020/07/01~2020/8/31</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Docker/Go/Kubernetes</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -730,10 +726,10 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1018,7 +1014,7 @@
   <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.75" defaultRowHeight="20.25" x14ac:dyDescent="0.3"/>
@@ -1083,9 +1079,7 @@
       <c r="F3" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="G3" s="19" t="s">
-        <v>96</v>
-      </c>
+      <c r="G3" s="19"/>
       <c r="H3" s="20"/>
     </row>
     <row r="4" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -1211,7 +1205,7 @@
       <c r="D9" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="E9" s="3" t="s">
+      <c r="E9" s="14" t="s">
         <v>40</v>
       </c>
       <c r="F9" s="3" t="s">
@@ -1423,10 +1417,9 @@
       <c r="H21" s="18"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="2">
     <mergeCell ref="A1:H1"/>
     <mergeCell ref="A19:H21"/>
-    <mergeCell ref="G3:H3"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
